--- a/ResultadoEleicoesDistritos/COIMBRA_MIRA.xlsx
+++ b/ResultadoEleicoesDistritos/COIMBRA_MIRA.xlsx
@@ -597,64 +597,64 @@
         <v>3811</v>
       </c>
       <c r="H2" t="n">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="I2" t="n">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="J2" t="n">
-        <v>1562</v>
+        <v>1532</v>
       </c>
       <c r="K2" t="n">
         <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="M2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N2" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S2" t="n">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="T2" t="n">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="U2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V2" t="n">
-        <v>2463</v>
+        <v>2521</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2448</v>
+        <v>2416</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
